--- a/excel_reports/Aaron_Butler.xlsx
+++ b/excel_reports/Aaron_Butler.xlsx
@@ -192,88 +192,88 @@
     <t>AARP/UHC</t>
   </si>
   <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3755772831</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/23731051</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>McElroy</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>CLI6916815</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3758928794</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/22302001</t>
+  </si>
+  <si>
+    <t>Glenda</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>AETNA ACCENDO</t>
+  </si>
+  <si>
+    <t>ACC6710839</t>
+  </si>
+  <si>
+    <t>05-01-2023</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3701112177</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/20126451</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Winterfeld</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3687488341</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/24212001</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Neufeld</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3754836087</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/22805551</t>
+  </si>
+  <si>
+    <t>Juanita</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
     <t>110 - Submitted</t>
-  </si>
-  <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3755772831</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/23731051</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>McElroy</t>
-  </si>
-  <si>
-    <t>AETNA</t>
-  </si>
-  <si>
-    <t>CLI6916815</t>
-  </si>
-  <si>
-    <t>11-07-2022</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3758928794</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/22302001</t>
-  </si>
-  <si>
-    <t>Glenda</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>AETNA ACCENDO</t>
-  </si>
-  <si>
-    <t>ACC6710839</t>
-  </si>
-  <si>
-    <t>05-01-2023</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3701112177</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/20126451</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Winterfeld</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3687488341</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/24212001</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Neufeld</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3754836087</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/22805551</t>
-  </si>
-  <si>
-    <t>Juanita</t>
-  </si>
-  <si>
-    <t>Williams</t>
   </si>
   <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3774669837</t>
@@ -4841,6 +4841,15 @@
     <t>AARP Medicare Advantage Patriot (PPO)</t>
   </si>
   <si>
+    <t>3168478355</t>
+  </si>
+  <si>
+    <t>14739301</t>
+  </si>
+  <si>
+    <t>Wellcare No Premium (HMO)</t>
+  </si>
+  <si>
     <t>4028371990</t>
   </si>
   <si>
@@ -4848,15 +4857,6 @@
   </si>
   <si>
     <t>AARP Medicare Advantage Patriot (HMO-POS)</t>
-  </si>
-  <si>
-    <t>3168478355</t>
-  </si>
-  <si>
-    <t>14739301</t>
-  </si>
-  <si>
-    <t>Wellcare No Premium (HMO)</t>
   </si>
   <si>
     <t>3989840437</t>
@@ -6147,10 +6147,10 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>42</v>
@@ -6164,31 +6164,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>37</v>
@@ -6199,34 +6199,34 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>17</v>
@@ -6256,7 +6256,7 @@
         <v>19</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>21</v>
@@ -6267,16 +6267,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>56</v>
@@ -6286,10 +6286,10 @@
         <v>18</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>37</v>
@@ -6300,29 +6300,29 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="I26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>47</v>
@@ -6417,7 +6417,7 @@
         <v>99</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>19</v>
@@ -6549,10 +6549,10 @@
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>100</v>
@@ -6582,10 +6582,10 @@
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>100</v>
@@ -6677,7 +6677,7 @@
         <v>134</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>135</v>
@@ -6716,10 +6716,10 @@
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>126</v>
@@ -6976,14 +6976,14 @@
         <v>177</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8" t="s">
         <v>178</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>179</v>
@@ -7013,10 +7013,10 @@
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>169</v>
@@ -7075,7 +7075,7 @@
         <v>190</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>191</v>
@@ -7143,7 +7143,7 @@
         <v>199</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>200</v>
@@ -7182,7 +7182,7 @@
         <v>199</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>204</v>
@@ -7217,7 +7217,7 @@
         <v>199</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>208</v>
@@ -7256,7 +7256,7 @@
         <v>199</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>210</v>
@@ -7295,10 +7295,10 @@
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>186</v>
@@ -7324,7 +7324,7 @@
         <v>217</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>218</v>
@@ -7359,7 +7359,7 @@
         <v>217</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>222</v>
@@ -7398,10 +7398,10 @@
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I87" s="8" t="s">
         <v>219</v>
@@ -7431,10 +7431,10 @@
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>219</v>
@@ -7561,7 +7561,7 @@
         <v>248</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>249</v>
@@ -7600,10 +7600,10 @@
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>244</v>
@@ -7626,17 +7626,17 @@
         <v>256</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>244</v>
@@ -7798,10 +7798,10 @@
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>202</v>
@@ -7899,10 +7899,10 @@
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I116" s="8" t="s">
         <v>280</v>
@@ -7932,10 +7932,10 @@
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H118" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I118" s="8" t="s">
         <v>280</v>
@@ -8029,7 +8029,7 @@
         <v>306</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>99</v>
@@ -8064,7 +8064,7 @@
         <v>311</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>99</v>
@@ -8235,10 +8235,10 @@
       </c>
       <c r="F136" s="8"/>
       <c r="G136" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H136" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I136" s="8" t="s">
         <v>302</v>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F140" s="8"/>
       <c r="G140" s="8" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>19</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>19</v>
@@ -8400,10 +8400,10 @@
       </c>
       <c r="F146" s="8"/>
       <c r="G146" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I146" s="8" t="s">
         <v>336</v>
@@ -8436,7 +8436,7 @@
         <v>201</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I148" s="8" t="s">
         <v>179</v>
@@ -8470,10 +8470,10 @@
       </c>
       <c r="F149" s="8"/>
       <c r="G149" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I149" s="8" t="s">
         <v>336</v>
@@ -8503,10 +8503,10 @@
       </c>
       <c r="F151" s="8"/>
       <c r="G151" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H151" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I151" s="8" t="s">
         <v>336</v>
@@ -8794,7 +8794,7 @@
         <v>199</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>200</v>
@@ -8833,7 +8833,7 @@
         <v>199</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>204</v>
@@ -8868,7 +8868,7 @@
         <v>199</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>208</v>
@@ -8907,7 +8907,7 @@
         <v>199</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>210</v>
@@ -9113,7 +9113,7 @@
         <v>394</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>395</v>
@@ -9416,7 +9416,7 @@
         <v>394</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>395</v>
@@ -9675,7 +9675,7 @@
         <v>453</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
@@ -10781,7 +10781,7 @@
         <v>19</v>
       </c>
       <c r="L69" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M69" t="s">
         <v>100</v>
@@ -11122,7 +11122,7 @@
         <v>394</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>395</v>
@@ -11331,7 +11331,7 @@
         <v>19</v>
       </c>
       <c r="L91" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M91" t="s">
         <v>336</v>
@@ -12022,7 +12022,7 @@
         <v>394</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>395</v>
@@ -12172,7 +12172,7 @@
         <v>394</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>395</v>
@@ -12378,7 +12378,7 @@
         <v>394</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>395</v>
@@ -13131,7 +13131,7 @@
         <v>394</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J163" s="8" t="s">
         <v>395</v>
@@ -13781,7 +13781,7 @@
         <v>394</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J189" s="8" t="s">
         <v>395</v>
@@ -13831,7 +13831,7 @@
         <v>394</v>
       </c>
       <c r="I191" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J191" s="8" t="s">
         <v>395</v>
@@ -13981,7 +13981,7 @@
         <v>394</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J197" s="8" t="s">
         <v>395</v>
@@ -14337,7 +14337,7 @@
         <v>394</v>
       </c>
       <c r="I211" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>395</v>
@@ -14387,7 +14387,7 @@
         <v>394</v>
       </c>
       <c r="I213" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J213" s="8" t="s">
         <v>395</v>
@@ -14487,7 +14487,7 @@
         <v>394</v>
       </c>
       <c r="I217" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J217" s="8" t="s">
         <v>480</v>
@@ -14537,7 +14537,7 @@
         <v>394</v>
       </c>
       <c r="I219" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J219" s="8" t="s">
         <v>395</v>
@@ -14637,7 +14637,7 @@
         <v>394</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J223" s="8" t="s">
         <v>395</v>
@@ -14787,7 +14787,7 @@
         <v>394</v>
       </c>
       <c r="I229" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J229" s="8" t="s">
         <v>395</v>
@@ -14837,7 +14837,7 @@
         <v>394</v>
       </c>
       <c r="I231" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J231" s="8" t="s">
         <v>395</v>
@@ -15037,7 +15037,7 @@
         <v>394</v>
       </c>
       <c r="I239" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J239" s="8" t="s">
         <v>395</v>
@@ -15193,10 +15193,10 @@
         <v>858</v>
       </c>
       <c r="K244" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L244" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M244" t="s">
         <v>280</v>
@@ -15587,7 +15587,7 @@
         <v>394</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J260" s="8" t="s">
         <v>395</v>
@@ -15887,7 +15887,7 @@
         <v>394</v>
       </c>
       <c r="I271" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J271" s="8" t="s">
         <v>395</v>
@@ -16319,25 +16319,25 @@
         <v>932</v>
       </c>
       <c r="C289" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D289" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D289" s="8" t="s">
+      <c r="E289" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I289" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E289" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F289" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G289" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H289" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I289" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="J289" s="8" t="s">
         <v>395</v>
@@ -16349,7 +16349,7 @@
         <v>18</v>
       </c>
       <c r="M289" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N289" t="s">
         <v>37</v>
@@ -16946,7 +16946,7 @@
         <v>19</v>
       </c>
       <c r="L313" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M313" t="s">
         <v>336</v>
@@ -16987,7 +16987,7 @@
         <v>394</v>
       </c>
       <c r="I315" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J315" s="8" t="s">
         <v>395</v>
@@ -17237,7 +17237,7 @@
         <v>394</v>
       </c>
       <c r="I325" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J325" s="8" t="s">
         <v>395</v>
@@ -17387,7 +17387,7 @@
         <v>394</v>
       </c>
       <c r="I331" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J331" s="8" t="s">
         <v>480</v>
@@ -18393,7 +18393,7 @@
         <v>394</v>
       </c>
       <c r="I371" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J371" s="8" t="s">
         <v>395</v>
@@ -18843,7 +18843,7 @@
         <v>394</v>
       </c>
       <c r="I389" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J389" s="8" t="s">
         <v>395</v>
@@ -18893,7 +18893,7 @@
         <v>394</v>
       </c>
       <c r="I391" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J391" s="8" t="s">
         <v>395</v>
@@ -19143,7 +19143,7 @@
         <v>394</v>
       </c>
       <c r="I401" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J401" s="8" t="s">
         <v>395</v>
@@ -19293,7 +19293,7 @@
         <v>394</v>
       </c>
       <c r="I407" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J407" s="8" t="s">
         <v>395</v>
@@ -19393,7 +19393,7 @@
         <v>394</v>
       </c>
       <c r="I411" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J411" s="8" t="s">
         <v>395</v>
@@ -19446,7 +19446,7 @@
         <v>394</v>
       </c>
       <c r="I412" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J412" s="8" t="s">
         <v>395</v>
@@ -19496,7 +19496,7 @@
         <v>394</v>
       </c>
       <c r="I414" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J414" s="8" t="s">
         <v>395</v>
@@ -19549,7 +19549,7 @@
         <v>394</v>
       </c>
       <c r="I415" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J415" s="8" t="s">
         <v>395</v>
@@ -19649,7 +19649,7 @@
         <v>394</v>
       </c>
       <c r="I419" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J419" s="8" t="s">
         <v>395</v>
@@ -19699,7 +19699,7 @@
         <v>394</v>
       </c>
       <c r="I421" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J421" s="8" t="s">
         <v>395</v>
@@ -19899,7 +19899,7 @@
         <v>394</v>
       </c>
       <c r="I429" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J429" s="8" t="s">
         <v>395</v>
@@ -19949,7 +19949,7 @@
         <v>394</v>
       </c>
       <c r="I431" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J431" s="8" t="s">
         <v>395</v>
@@ -20149,7 +20149,7 @@
         <v>394</v>
       </c>
       <c r="I439" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J439" s="8" t="s">
         <v>395</v>
@@ -20255,7 +20255,7 @@
         <v>394</v>
       </c>
       <c r="I443" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J443" s="8" t="s">
         <v>395</v>
@@ -20355,7 +20355,7 @@
         <v>394</v>
       </c>
       <c r="I447" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J447" s="8" t="s">
         <v>395</v>
@@ -20405,7 +20405,7 @@
         <v>394</v>
       </c>
       <c r="I449" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J449" s="8" t="s">
         <v>395</v>
@@ -20761,7 +20761,7 @@
         <v>394</v>
       </c>
       <c r="I463" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J463" s="8" t="s">
         <v>395</v>
@@ -20911,7 +20911,7 @@
         <v>394</v>
       </c>
       <c r="I469" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J469" s="8" t="s">
         <v>395</v>
@@ -21214,7 +21214,7 @@
         <v>394</v>
       </c>
       <c r="I481" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J481" s="8" t="s">
         <v>395</v>
@@ -21364,7 +21364,7 @@
         <v>394</v>
       </c>
       <c r="I487" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J487" s="8" t="s">
         <v>395</v>
@@ -21870,7 +21870,7 @@
         <v>394</v>
       </c>
       <c r="I507" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J507" s="8" t="s">
         <v>395</v>
@@ -21920,7 +21920,7 @@
         <v>394</v>
       </c>
       <c r="I509" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J509" s="8" t="s">
         <v>395</v>
@@ -21970,7 +21970,7 @@
         <v>394</v>
       </c>
       <c r="I511" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J511" s="8" t="s">
         <v>395</v>
@@ -22255,7 +22255,7 @@
         <v>1339</v>
       </c>
       <c r="D523" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E523" s="8" t="s">
         <v>393</v>
@@ -22305,7 +22305,7 @@
         <v>194</v>
       </c>
       <c r="D525" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E525" s="8" t="s">
         <v>393</v>
@@ -22355,7 +22355,7 @@
         <v>1344</v>
       </c>
       <c r="D527" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E527" s="8" t="s">
         <v>393</v>
@@ -22405,7 +22405,7 @@
         <v>213</v>
       </c>
       <c r="D529" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E529" s="8" t="s">
         <v>393</v>
@@ -22502,25 +22502,25 @@
         <v>1351</v>
       </c>
       <c r="C533" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D533" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D533" s="8" t="s">
+      <c r="E533" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F533" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G533" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H533" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I533" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="E533" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F533" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G533" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H533" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I533" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="J533" s="8" t="s">
         <v>395</v>
@@ -22532,10 +22532,10 @@
         <v>18</v>
       </c>
       <c r="M533" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N533" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q533" s="8" t="s">
         <v>397</v>
@@ -22552,10 +22552,10 @@
         <v>1353</v>
       </c>
       <c r="C535" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D535" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D535" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E535" s="8" t="s">
         <v>393</v>
@@ -22582,7 +22582,7 @@
         <v>18</v>
       </c>
       <c r="M535" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N535" t="s">
         <v>21</v>
@@ -22876,10 +22876,10 @@
         <v>1374</v>
       </c>
       <c r="K547" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L547" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M547" t="s">
         <v>202</v>
@@ -22888,7 +22888,7 @@
         <v>37</v>
       </c>
       <c r="Q547" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S547" s="10" t="s">
         <v>398</v>
@@ -22926,7 +22926,7 @@
         <v>1374</v>
       </c>
       <c r="K549" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L549" t="s">
         <v>18</v>
@@ -22970,13 +22970,13 @@
         <v>394</v>
       </c>
       <c r="I551" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J551" s="8" t="s">
         <v>1382</v>
       </c>
       <c r="K551" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L551" t="s">
         <v>18</v>
@@ -23026,7 +23026,7 @@
         <v>1387</v>
       </c>
       <c r="K553" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L553" t="s">
         <v>18</v>
@@ -23076,7 +23076,7 @@
         <v>1392</v>
       </c>
       <c r="K555" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L555" t="s">
         <v>1393</v>
@@ -23132,7 +23132,7 @@
         <v>1374</v>
       </c>
       <c r="K557" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L557" t="s">
         <v>18</v>
@@ -23182,10 +23182,10 @@
         <v>1374</v>
       </c>
       <c r="K559" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L559" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M559" t="s">
         <v>336</v>
@@ -23232,7 +23232,7 @@
         <v>1401</v>
       </c>
       <c r="K561" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L561" t="s">
         <v>18</v>
@@ -23282,7 +23282,7 @@
         <v>1405</v>
       </c>
       <c r="K563" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L563" t="s">
         <v>18</v>
@@ -23326,13 +23326,13 @@
         <v>394</v>
       </c>
       <c r="I565" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J565" s="8" t="s">
         <v>1411</v>
       </c>
       <c r="K565" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L565" t="s">
         <v>1412</v>
@@ -23376,13 +23376,13 @@
         <v>394</v>
       </c>
       <c r="I567" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J567" s="8" t="s">
         <v>1417</v>
       </c>
       <c r="K567" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L567" t="s">
         <v>18</v>
@@ -23426,13 +23426,13 @@
         <v>394</v>
       </c>
       <c r="I569" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J569" s="8" t="s">
         <v>1420</v>
       </c>
       <c r="K569" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L569" t="s">
         <v>178</v>
@@ -23479,10 +23479,10 @@
         <v>1422</v>
       </c>
       <c r="K570" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L570" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M570" t="s">
         <v>169</v>
@@ -23529,7 +23529,7 @@
         <v>1427</v>
       </c>
       <c r="K572" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L572" t="s">
         <v>18</v>
@@ -23579,7 +23579,7 @@
         <v>1432</v>
       </c>
       <c r="K574" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L574" t="s">
         <v>18</v>
@@ -23629,10 +23629,10 @@
         <v>1435</v>
       </c>
       <c r="K576" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L576" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M576" t="s">
         <v>280</v>
@@ -23679,7 +23679,7 @@
         <v>1439</v>
       </c>
       <c r="K578" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L578" t="s">
         <v>18</v>
@@ -23729,10 +23729,10 @@
         <v>1442</v>
       </c>
       <c r="K580" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L580" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M580" t="s">
         <v>219</v>
@@ -23741,7 +23741,7 @@
         <v>37</v>
       </c>
       <c r="Q580" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S580" s="10" t="s">
         <v>398</v>
@@ -23779,7 +23779,7 @@
         <v>1401</v>
       </c>
       <c r="K582" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L582" t="s">
         <v>18</v>
@@ -23829,7 +23829,7 @@
         <v>1449</v>
       </c>
       <c r="K584" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L584" t="s">
         <v>18</v>
@@ -23879,7 +23879,7 @@
         <v>1401</v>
       </c>
       <c r="K586" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L586" t="s">
         <v>18</v>
@@ -23929,10 +23929,10 @@
         <v>1454</v>
       </c>
       <c r="K588" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L588" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M588" t="s">
         <v>244</v>
@@ -23941,7 +23941,7 @@
         <v>21</v>
       </c>
       <c r="Q588" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S588" s="10" t="s">
         <v>398</v>
@@ -23979,10 +23979,10 @@
         <v>1401</v>
       </c>
       <c r="K590" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L590" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M590" t="s">
         <v>186</v>
@@ -24029,10 +24029,10 @@
         <v>1459</v>
       </c>
       <c r="K592" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L592" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M592" t="s">
         <v>100</v>
@@ -24079,7 +24079,7 @@
         <v>1459</v>
       </c>
       <c r="K594" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L594" t="s">
         <v>18</v>
@@ -24129,7 +24129,7 @@
         <v>1469</v>
       </c>
       <c r="K596" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L596" t="s">
         <v>18</v>
@@ -24179,7 +24179,7 @@
         <v>1475</v>
       </c>
       <c r="K598" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L598" t="s">
         <v>18</v>
@@ -24229,7 +24229,7 @@
         <v>1480</v>
       </c>
       <c r="K600" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L600" t="s">
         <v>18</v>
@@ -24279,7 +24279,7 @@
         <v>1485</v>
       </c>
       <c r="K602" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L602" t="s">
         <v>18</v>
@@ -24329,7 +24329,7 @@
         <v>1490</v>
       </c>
       <c r="K604" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L604" t="s">
         <v>18</v>
@@ -24379,7 +24379,7 @@
         <v>1374</v>
       </c>
       <c r="K606" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L606" t="s">
         <v>18</v>
@@ -24429,7 +24429,7 @@
         <v>1374</v>
       </c>
       <c r="K608" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L608" t="s">
         <v>18</v>
@@ -24479,7 +24479,7 @@
         <v>1459</v>
       </c>
       <c r="K610" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L610" t="s">
         <v>201</v>
@@ -24532,10 +24532,10 @@
         <v>1459</v>
       </c>
       <c r="K611" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L611" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M611" t="s">
         <v>336</v>
@@ -24582,10 +24582,10 @@
         <v>1374</v>
       </c>
       <c r="K613" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L613" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M613" t="s">
         <v>42</v>
@@ -24594,7 +24594,7 @@
         <v>37</v>
       </c>
       <c r="Q613" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S613" s="10" t="s">
         <v>398</v>
@@ -24632,10 +24632,10 @@
         <v>1374</v>
       </c>
       <c r="K615" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L615" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M615" t="s">
         <v>336</v>
@@ -24682,7 +24682,7 @@
         <v>453</v>
       </c>
       <c r="K617" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L617" t="s">
         <v>18</v>
@@ -24732,7 +24732,7 @@
         <v>453</v>
       </c>
       <c r="K619" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L619" t="s">
         <v>18</v>
@@ -24782,7 +24782,7 @@
         <v>1516</v>
       </c>
       <c r="K621" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L621" t="s">
         <v>18</v>
@@ -24832,7 +24832,7 @@
         <v>1485</v>
       </c>
       <c r="K623" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L623" t="s">
         <v>18</v>
@@ -24876,13 +24876,13 @@
         <v>394</v>
       </c>
       <c r="I625" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J625" s="8" t="s">
         <v>1525</v>
       </c>
       <c r="K625" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L625" t="s">
         <v>18</v>
@@ -24908,10 +24908,10 @@
         <v>1527</v>
       </c>
       <c r="C627" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D627" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D627" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="E627" s="8" t="s">
         <v>393</v>
@@ -24932,13 +24932,13 @@
         <v>1528</v>
       </c>
       <c r="K627" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L627" t="s">
         <v>18</v>
       </c>
       <c r="M627" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N627" t="s">
         <v>37</v>
@@ -24982,7 +24982,7 @@
         <v>1374</v>
       </c>
       <c r="K629" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L629" t="s">
         <v>18</v>
@@ -25032,7 +25032,7 @@
         <v>1374</v>
       </c>
       <c r="K631" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L631" t="s">
         <v>18</v>
@@ -25082,7 +25082,7 @@
         <v>1374</v>
       </c>
       <c r="K633" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L633" t="s">
         <v>18</v>
@@ -25132,7 +25132,7 @@
         <v>1490</v>
       </c>
       <c r="K635" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L635" t="s">
         <v>18</v>
@@ -25182,7 +25182,7 @@
         <v>1374</v>
       </c>
       <c r="K637" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L637" t="s">
         <v>18</v>
@@ -25232,7 +25232,7 @@
         <v>1374</v>
       </c>
       <c r="K639" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L639" t="s">
         <v>18</v>
@@ -25282,7 +25282,7 @@
         <v>1551</v>
       </c>
       <c r="K641" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L641" t="s">
         <v>18</v>
@@ -25332,7 +25332,7 @@
         <v>1374</v>
       </c>
       <c r="K643" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L643" t="s">
         <v>18</v>
@@ -25382,10 +25382,10 @@
         <v>1439</v>
       </c>
       <c r="K645" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L645" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M645" t="s">
         <v>100</v>
@@ -25432,7 +25432,7 @@
         <v>1561</v>
       </c>
       <c r="K647" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L647" t="s">
         <v>18</v>
@@ -25482,7 +25482,7 @@
         <v>1449</v>
       </c>
       <c r="K649" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L649" t="s">
         <v>18</v>
@@ -25532,10 +25532,10 @@
         <v>1567</v>
       </c>
       <c r="K651" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L651" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M651" t="s">
         <v>126</v>
@@ -25582,7 +25582,7 @@
         <v>1571</v>
       </c>
       <c r="K653" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L653" t="s">
         <v>18</v>
@@ -25632,10 +25632,10 @@
         <v>1401</v>
       </c>
       <c r="K655" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L655" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M655" t="s">
         <v>219</v>
@@ -25682,7 +25682,7 @@
         <v>1578</v>
       </c>
       <c r="K657" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L657" t="s">
         <v>1393</v>
@@ -25738,7 +25738,7 @@
         <v>1582</v>
       </c>
       <c r="K659" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L659" t="s">
         <v>18</v>
@@ -25788,7 +25788,7 @@
         <v>1374</v>
       </c>
       <c r="K661" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L661" t="s">
         <v>18</v>
@@ -25832,13 +25832,13 @@
         <v>394</v>
       </c>
       <c r="I663" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J663" s="8" t="s">
         <v>1589</v>
       </c>
       <c r="K663" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L663" t="s">
         <v>18</v>
@@ -25888,7 +25888,7 @@
         <v>1374</v>
       </c>
       <c r="K665" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L665" t="s">
         <v>18</v>
@@ -25938,7 +25938,7 @@
         <v>1597</v>
       </c>
       <c r="K667" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L667" t="s">
         <v>18</v>
@@ -25988,7 +25988,7 @@
         <v>1602</v>
       </c>
       <c r="K669" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L669" t="s">
         <v>18</v>
@@ -26014,10 +26014,10 @@
         <v>1604</v>
       </c>
       <c r="C671" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D671" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D671" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E671" s="8" t="s">
         <v>393</v>
@@ -26038,13 +26038,13 @@
         <v>1605</v>
       </c>
       <c r="K671" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L671" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M671" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N671" t="s">
         <v>47</v>
@@ -26064,10 +26064,10 @@
         <v>1607</v>
       </c>
       <c r="C673" s="8" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="D673" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E673" s="8" t="s">
         <v>393</v>
@@ -26082,25 +26082,25 @@
         <v>394</v>
       </c>
       <c r="I673" s="8" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="J673" s="8" t="s">
         <v>1608</v>
       </c>
       <c r="K673" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L673" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M673" t="s">
-        <v>244</v>
+        <v>937</v>
       </c>
       <c r="N673" t="s">
-        <v>37</v>
+        <v>626</v>
       </c>
       <c r="Q673" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S673" s="10" t="s">
         <v>398</v>
@@ -26114,10 +26114,10 @@
         <v>1610</v>
       </c>
       <c r="C675" s="8" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="D675" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E675" s="8" t="s">
         <v>393</v>
@@ -26132,22 +26132,22 @@
         <v>394</v>
       </c>
       <c r="I675" s="8" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="J675" s="8" t="s">
         <v>1611</v>
       </c>
       <c r="K675" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L675" t="s">
         <v>18</v>
       </c>
       <c r="M675" t="s">
-        <v>937</v>
+        <v>244</v>
       </c>
       <c r="N675" t="s">
-        <v>626</v>
+        <v>37</v>
       </c>
       <c r="Q675" s="8" t="s">
         <v>397</v>
@@ -26188,10 +26188,10 @@
         <v>1374</v>
       </c>
       <c r="K677" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L677" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M677" t="s">
         <v>302</v>
@@ -26238,7 +26238,7 @@
         <v>1617</v>
       </c>
       <c r="K679" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L679" t="s">
         <v>18</v>
@@ -27101,7 +27101,7 @@
         <v>1623</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
         <v>370</v>
@@ -27189,7 +27189,7 @@
         <v>1623</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
         <v>244</v>
@@ -27799,7 +27799,7 @@
         <v>1623</v>
       </c>
       <c r="L36" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M36" t="s">
         <v>302</v>
@@ -28588,7 +28588,7 @@
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N72" t="s">
         <v>89</v>
@@ -28673,7 +28673,7 @@
         <v>1623</v>
       </c>
       <c r="L76" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M76" t="s">
         <v>302</v>
@@ -28870,7 +28870,7 @@
         <v>1692</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
         <v>126</v>
@@ -28952,7 +28952,7 @@
         <v>1692</v>
       </c>
       <c r="L6" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
         <v>244</v>

--- a/excel_reports/Aaron_Butler.xlsx
+++ b/excel_reports/Aaron_Butler.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7760" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7763" uniqueCount="1882">
   <si>
     <t>Policy Record</t>
   </si>
@@ -5582,10 +5582,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -5627,13 +5630,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -5648,7 +5654,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -6058,7 +6067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6096,25 +6105,25 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6122,62 +6131,70 @@
         <v>1857</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>1859</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1861</v>
       </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>1862</v>
-      </c>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B13" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -6186,12 +6203,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B20">
         <v>38</v>
@@ -6199,7 +6216,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B21">
         <v>38</v>
@@ -6207,7 +6224,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -6215,25 +6232,33 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>1871</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>1872</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -6241,7 +6266,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -6249,7 +6274,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -6257,19 +6282,27 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>1878</v>
+      </c>
+      <c r="B29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+      <c r="A30" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -9923,7 +9956,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -29569,7 +29602,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -31477,7 +31510,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
